--- a/docs/assets/references/frame/FrameCalculator.xlsx
+++ b/docs/assets/references/frame/FrameCalculator.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivi\OneDrive\Documents\GitHub\HevORT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivi\OneDrive\Documents\GitHub\HevORT\docs\assets\references\frame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42B6B26B-C526-4D27-AB4C-A1696D3203BB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DFE4DA3-9321-4DE1-8882-F27B64FDD3BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{2DD4E541-7648-4A97-AB5A-A9C0E0660C31}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{2DD4E541-7648-4A97-AB5A-A9C0E0660C31}"/>
   </bookViews>
   <sheets>
     <sheet name="FRAMECALCULATOR" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="142">
   <si>
     <t>Desired Print Area</t>
   </si>
@@ -460,6 +460,12 @@
   </si>
   <si>
     <t>SFU1204 Screw BK10/BF10</t>
+  </si>
+  <si>
+    <t>ZR_MGN12H_FR</t>
+  </si>
+  <si>
+    <t>ZR_MGN12H_RR</t>
   </si>
 </sst>
 </file>
@@ -2867,35 +2873,35 @@
   </sheetPr>
   <dimension ref="A1:W55"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" outlineLevelCol="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" customWidth="1"/>
-    <col min="2" max="3" width="3.42578125" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="4" max="4" width="5.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="22.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="1" max="1" width="3.453125" customWidth="1"/>
+    <col min="2" max="3" width="3.453125" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="5.7265625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="22.81640625" customWidth="1"/>
+    <col min="6" max="6" width="18.1796875" customWidth="1"/>
     <col min="7" max="7" width="35" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.42578125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.28515625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.140625" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="12" max="12" width="12.85546875" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="13" max="13" width="8.140625" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="14" max="14" width="9.140625" collapsed="1"/>
-    <col min="15" max="15" width="11.85546875" customWidth="1"/>
-    <col min="16" max="16" width="1.28515625" customWidth="1"/>
-    <col min="17" max="17" width="32.140625" style="3" customWidth="1"/>
-    <col min="18" max="18" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.85546875" style="1" customWidth="1"/>
-    <col min="20" max="20" width="10.140625" customWidth="1"/>
-    <col min="21" max="21" width="12.28515625" customWidth="1"/>
+    <col min="8" max="8" width="24.453125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.26953125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.1796875" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="12" width="12.81640625" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="13" max="13" width="8.1796875" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="14" max="14" width="9.1796875" collapsed="1"/>
+    <col min="15" max="15" width="11.81640625" customWidth="1"/>
+    <col min="16" max="16" width="1.26953125" customWidth="1"/>
+    <col min="17" max="17" width="32.1796875" style="3" customWidth="1"/>
+    <col min="18" max="18" width="12.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.81640625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="10.1796875" customWidth="1"/>
+    <col min="21" max="21" width="12.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:23" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:23" ht="18.5" x14ac:dyDescent="0.45">
       <c r="F1" s="1"/>
       <c r="G1" s="2" t="s">
         <v>0</v>
@@ -2904,7 +2910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="2:23" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:23" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="F2" s="1"/>
       <c r="G2" s="4" t="s">
         <v>2</v>
@@ -2916,7 +2922,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="3" spans="2:23" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:23" ht="18.5" x14ac:dyDescent="0.45">
       <c r="F3" s="1"/>
       <c r="G3" s="4" t="s">
         <v>3</v>
@@ -2929,7 +2935,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:23" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:23" ht="24" thickBot="1" x14ac:dyDescent="0.6">
       <c r="F4" s="1"/>
       <c r="G4" s="4" t="s">
         <v>5</v>
@@ -2944,12 +2950,12 @@
         <v>138</v>
       </c>
     </row>
-    <row r="5" spans="2:23" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:23" ht="24" thickBot="1" x14ac:dyDescent="0.6">
       <c r="G5" s="51" t="s">
         <v>133</v>
       </c>
       <c r="H5" s="54" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="I5" s="17" t="s">
         <v>137</v>
@@ -2965,18 +2971,18 @@
         <v>103</v>
       </c>
     </row>
-    <row r="6" spans="2:23" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:23" ht="24" thickBot="1" x14ac:dyDescent="0.6">
       <c r="E6" s="7" t="s">
         <v>109</v>
       </c>
       <c r="Q6" s="58" t="str">
         <f>"Summary for: "&amp;H2&amp;"x"&amp;H3&amp;"x"&amp;H4&amp;" - "&amp;H5</f>
-        <v>Summary for: 315x315x340 - STD_HT</v>
+        <v>Summary for: 315x315x340 - HD</v>
       </c>
       <c r="R6" s="59"/>
       <c r="S6" s="60"/>
     </row>
-    <row r="7" spans="2:23" s="12" customFormat="1" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:23" s="12" customFormat="1" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B7" s="12" t="s">
         <v>135</v>
       </c>
@@ -3024,7 +3030,7 @@
       <c r="U7"/>
       <c r="V7"/>
     </row>
-    <row r="8" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
         <v>136</v>
       </c>
@@ -3073,7 +3079,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>136</v>
       </c>
@@ -3122,7 +3128,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
         <v>136</v>
       </c>
@@ -3171,7 +3177,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
         <v>136</v>
       </c>
@@ -3214,7 +3220,7 @@
       <c r="R11" s="15"/>
       <c r="S11" s="27"/>
     </row>
-    <row r="12" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
         <v>136</v>
       </c>
@@ -3263,7 +3269,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>136</v>
       </c>
@@ -3312,7 +3318,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>136</v>
       </c>
@@ -3361,7 +3367,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>136</v>
       </c>
@@ -3410,7 +3416,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B16" t="s">
         <v>136</v>
       </c>
@@ -3459,7 +3465,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B17" t="s">
         <v>136</v>
       </c>
@@ -3502,7 +3508,7 @@
       <c r="R17" s="15"/>
       <c r="S17" s="27"/>
     </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>136</v>
       </c>
@@ -3551,7 +3557,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B19" t="s">
         <v>136</v>
       </c>
@@ -3600,7 +3606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>136</v>
       </c>
@@ -3649,7 +3655,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B21" t="s">
         <v>136</v>
       </c>
@@ -3698,7 +3704,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B22" t="s">
         <v>136</v>
       </c>
@@ -3741,7 +3747,7 @@
       <c r="R22" s="15"/>
       <c r="S22" s="27"/>
     </row>
-    <row r="23" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B23" t="s">
         <v>136</v>
       </c>
@@ -3790,7 +3796,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B24" t="s">
         <v>136</v>
       </c>
@@ -3833,7 +3839,7 @@
       <c r="R24" s="15"/>
       <c r="S24" s="27"/>
     </row>
-    <row r="25" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B25" t="s">
         <v>136</v>
       </c>
@@ -3882,7 +3888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B26" t="s">
         <v>136</v>
       </c>
@@ -3925,7 +3931,7 @@
       <c r="R26" s="15"/>
       <c r="S26" s="27"/>
     </row>
-    <row r="27" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B27" t="s">
         <v>136</v>
       </c>
@@ -3974,7 +3980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B28" t="s">
         <v>136</v>
       </c>
@@ -4017,7 +4023,7 @@
       <c r="R28" s="15"/>
       <c r="S28" s="27"/>
     </row>
-    <row r="29" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B29" t="s">
         <v>136</v>
       </c>
@@ -4067,7 +4073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B30" t="s">
         <v>136</v>
       </c>
@@ -4110,7 +4116,7 @@
       <c r="R30" s="15"/>
       <c r="S30" s="27"/>
     </row>
-    <row r="31" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B31" t="s">
         <v>136</v>
       </c>
@@ -4159,7 +4165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B32" t="s">
         <v>136</v>
       </c>
@@ -4202,7 +4208,7 @@
       <c r="R32" s="24"/>
       <c r="S32" s="28"/>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B33" t="s">
         <v>136</v>
       </c>
@@ -4245,7 +4251,7 @@
       <c r="R33"/>
       <c r="S33"/>
     </row>
-    <row r="34" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B34" t="s">
         <v>136</v>
       </c>
@@ -4288,7 +4294,7 @@
       <c r="R34"/>
       <c r="S34"/>
     </row>
-    <row r="35" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B35" t="s">
         <v>136</v>
       </c>
@@ -4331,7 +4337,7 @@
       <c r="R35"/>
       <c r="S35"/>
     </row>
-    <row r="36" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B36" t="s">
         <v>136</v>
       </c>
@@ -4374,7 +4380,7 @@
       <c r="R36"/>
       <c r="S36"/>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B37" t="s">
         <v>136</v>
       </c>
@@ -4417,13 +4423,13 @@
       <c r="R37"/>
       <c r="S37"/>
     </row>
-    <row r="38" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:22" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B38" t="s">
         <v>136</v>
       </c>
-      <c r="D38" s="52" t="str">
+      <c r="D38" s="52">
         <f t="shared" si="0"/>
-        <v>x</v>
+        <v>0</v>
       </c>
       <c r="E38" s="13" t="s">
         <v>106</v>
@@ -4462,7 +4468,7 @@
       <c r="U38" s="25"/>
       <c r="V38" s="25"/>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B39" t="s">
         <v>136</v>
       </c>
@@ -4509,13 +4515,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B40" t="s">
         <v>136</v>
       </c>
-      <c r="D40" s="52" t="str">
+      <c r="D40" s="52">
         <f t="shared" si="0"/>
-        <v>x</v>
+        <v>0</v>
       </c>
       <c r="E40" s="13" t="s">
         <v>128</v>
@@ -4553,13 +4559,13 @@
         <v>340</v>
       </c>
     </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B41" t="s">
         <v>136</v>
       </c>
-      <c r="D41" s="52" t="str">
+      <c r="D41" s="52">
         <f t="shared" si="0"/>
-        <v>x</v>
+        <v>0</v>
       </c>
       <c r="E41" s="13" t="s">
         <v>128</v>
@@ -4599,13 +4605,13 @@
         <v>390</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B42" t="s">
         <v>136</v>
       </c>
-      <c r="D42" s="52" t="str">
+      <c r="D42" s="52">
         <f t="shared" si="0"/>
-        <v>x</v>
+        <v>0</v>
       </c>
       <c r="E42" s="13" t="s">
         <v>128</v>
@@ -4645,7 +4651,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B43" t="s">
         <v>136</v>
       </c>
@@ -4694,7 +4700,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B44" t="s">
         <v>136</v>
       </c>
@@ -4709,7 +4715,7 @@
         <v>93</v>
       </c>
       <c r="F44" s="13" t="s">
-        <v>94</v>
+        <v>140</v>
       </c>
       <c r="G44" s="13" t="s">
         <v>92</v>
@@ -4743,7 +4749,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B45" t="s">
         <v>136</v>
       </c>
@@ -4758,7 +4764,7 @@
         <v>93</v>
       </c>
       <c r="F45" s="13" t="s">
-        <v>94</v>
+        <v>141</v>
       </c>
       <c r="G45" s="13" t="s">
         <v>92</v>
@@ -4792,7 +4798,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B46" t="s">
         <v>136</v>
       </c>
@@ -4841,7 +4847,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B47" t="s">
         <v>136</v>
       </c>
@@ -4890,7 +4896,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B48" t="s">
         <v>136</v>
       </c>
@@ -4930,7 +4936,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B49" t="s">
         <v>136</v>
       </c>
@@ -4970,7 +4976,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B50" t="s">
         <v>136</v>
       </c>
@@ -5010,7 +5016,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B51" t="s">
         <v>136</v>
       </c>
@@ -5050,14 +5056,14 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A52" s="49"/>
       <c r="C52" t="s">
         <v>136</v>
       </c>
-      <c r="D52" s="52">
+      <c r="D52" s="52" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>x</v>
       </c>
       <c r="E52" s="13" t="s">
         <v>124</v>
@@ -5088,14 +5094,14 @@
         <v>105</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A53" s="49"/>
       <c r="C53" t="s">
         <v>136</v>
       </c>
-      <c r="D53" s="52">
+      <c r="D53" s="52" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>x</v>
       </c>
       <c r="E53" s="13" t="s">
         <v>129</v>
@@ -5127,14 +5133,14 @@
       </c>
       <c r="Q53"/>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A54" s="49"/>
       <c r="C54" t="s">
         <v>136</v>
       </c>
-      <c r="D54" s="52">
+      <c r="D54" s="52" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>x</v>
       </c>
       <c r="E54" s="13" t="s">
         <v>129</v>
@@ -5166,14 +5172,14 @@
       </c>
       <c r="Q54"/>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A55" s="49"/>
       <c r="C55" t="s">
         <v>136</v>
       </c>
-      <c r="D55" s="52">
+      <c r="D55" s="52" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>x</v>
       </c>
       <c r="E55" s="13" t="s">
         <v>129</v>
@@ -5246,20 +5252,20 @@
       <selection activeCell="V36" sqref="V36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="16" max="16" width="31.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.85546875" customWidth="1"/>
+    <col min="16" max="16" width="31.7265625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="16:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="16:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="16:17" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="16:17" x14ac:dyDescent="0.35">
       <c r="P3" s="41" t="s">
         <v>123</v>
       </c>
       <c r="Q3" s="42"/>
     </row>
-    <row r="4" spans="16:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="16:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="P4" s="43" t="str">
         <f>FRAMECALCULATOR!G1</f>
         <v>Desired Print Area</v>
@@ -5268,7 +5274,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="5" spans="16:17" ht="21" x14ac:dyDescent="0.35">
+    <row r="5" spans="16:17" ht="21" x14ac:dyDescent="0.5">
       <c r="P5" s="45" t="str">
         <f>FRAMECALCULATOR!G2</f>
         <v>X</v>
@@ -5278,7 +5284,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="6" spans="16:17" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="16:17" ht="21.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="P6" s="47" t="str">
         <f>FRAMECALCULATOR!G3</f>
         <v>Y</v>
@@ -5288,7 +5294,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="9" spans="16:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="16:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="P9" s="39" t="s">
         <v>114</v>
       </c>
@@ -5296,7 +5302,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="10" spans="16:17" ht="21" x14ac:dyDescent="0.35">
+    <row r="10" spans="16:17" ht="21" x14ac:dyDescent="0.5">
       <c r="P10" s="38" t="s">
         <v>2</v>
       </c>
@@ -5305,7 +5311,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="11" spans="16:17" ht="21" x14ac:dyDescent="0.35">
+    <row r="11" spans="16:17" ht="21" x14ac:dyDescent="0.5">
       <c r="P11" s="38" t="s">
         <v>3</v>
       </c>
@@ -5314,7 +5320,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="13" spans="16:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="16:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="P13" s="39" t="s">
         <v>115</v>
       </c>
@@ -5322,7 +5328,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="14" spans="16:17" ht="21" x14ac:dyDescent="0.35">
+    <row r="14" spans="16:17" ht="21" x14ac:dyDescent="0.5">
       <c r="P14" s="38" t="s">
         <v>2</v>
       </c>
@@ -5331,7 +5337,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="15" spans="16:17" ht="21" x14ac:dyDescent="0.35">
+    <row r="15" spans="16:17" ht="21" x14ac:dyDescent="0.5">
       <c r="P15" s="38" t="s">
         <v>3</v>
       </c>
@@ -5340,13 +5346,13 @@
         <v>302</v>
       </c>
     </row>
-    <row r="17" spans="16:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="16:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="P17" s="39" t="s">
         <v>122</v>
       </c>
       <c r="Q17" s="39"/>
     </row>
-    <row r="18" spans="16:17" ht="21" x14ac:dyDescent="0.35">
+    <row r="18" spans="16:17" ht="21" x14ac:dyDescent="0.5">
       <c r="P18" s="38" t="s">
         <v>2</v>
       </c>
@@ -5355,7 +5361,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="19" spans="16:17" ht="21" x14ac:dyDescent="0.35">
+    <row r="19" spans="16:17" ht="21" x14ac:dyDescent="0.5">
       <c r="P19" s="38" t="s">
         <v>3</v>
       </c>

--- a/docs/assets/references/frame/FrameCalculator.xlsx
+++ b/docs/assets/references/frame/FrameCalculator.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivi\OneDrive\Documents\GitHub\HevORT\docs\assets\references\frame\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e8bf86f88c49aa82/Documents/GitHub/HevORT/docs/assets/references/frame/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DFE4DA3-9321-4DE1-8882-F27B64FDD3BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{0DFE4DA3-9321-4DE1-8882-F27B64FDD3BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DBB8B9C3-1348-48CD-A1F8-CF11481C8CE2}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{2DD4E541-7648-4A97-AB5A-A9C0E0660C31}"/>
   </bookViews>
@@ -1024,7 +1024,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1082,13 +1082,13 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1098,7 +1098,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
@@ -1136,9 +1135,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1177,6 +1173,16 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="31">
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1538,16 +1544,6 @@
     <dxf>
       <alignment horizontal="left"/>
     </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -2414,35 +2410,38 @@
     <dataField name="Sum of Qty" fld="6" baseField="4" baseItem="2"/>
   </dataFields>
   <formats count="30">
-    <format dxfId="29">
+    <format dxfId="30">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="28">
+    <format dxfId="29">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="27">
+    <format dxfId="28">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="26">
+    <format dxfId="27">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="25">
+    <format dxfId="26">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="24">
+    <format dxfId="25">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="23">
+    <format dxfId="24">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="22">
+    <format dxfId="23">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="21">
+    <format dxfId="22">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
+    <format dxfId="21">
+      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
     <format dxfId="20">
-      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
     <format dxfId="19">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
@@ -2451,43 +2450,40 @@
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
     <format dxfId="17">
+      <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
+    </format>
+    <format dxfId="16">
+      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="15">
+      <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="14">
+      <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
+    </format>
+    <format dxfId="13">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="12">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="11">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="16">
+    <format dxfId="10">
+      <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="9">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="15">
-      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="14">
-      <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="13">
-      <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
-    </format>
-    <format dxfId="12">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="11">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="10">
-      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="9">
-      <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
     <format dxfId="8">
-      <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
-    </format>
-    <format dxfId="7">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="6">
+    <format dxfId="7">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4" count="1" selected="0">
@@ -2500,7 +2496,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="5">
+    <format dxfId="6">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4" count="1" selected="0">
@@ -2514,7 +2510,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="4">
+    <format dxfId="5">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4" count="1" selected="0">
@@ -2526,7 +2522,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="3">
+    <format dxfId="4">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4" count="1" selected="0">
@@ -2540,7 +2536,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2">
+    <format dxfId="3">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4" count="1" selected="0">
@@ -2552,10 +2548,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1">
+    <format dxfId="2">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="0">
+    <format dxfId="1">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisPage" fieldPosition="0"/>
     </format>
   </formats>
@@ -2873,8 +2869,8 @@
   </sheetPr>
   <dimension ref="A1:W55"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" outlineLevelCol="1" x14ac:dyDescent="0.35"/>
@@ -2916,7 +2912,7 @@
         <v>2</v>
       </c>
       <c r="H2" s="5">
-        <v>315</v>
+        <v>415</v>
       </c>
       <c r="I2" s="17" t="s">
         <v>105</v>
@@ -2929,7 +2925,7 @@
       </c>
       <c r="H3" s="6">
         <f>H2</f>
-        <v>315</v>
+        <v>415</v>
       </c>
       <c r="I3" t="s">
         <v>4</v>
@@ -2951,20 +2947,20 @@
       </c>
     </row>
     <row r="5" spans="2:23" ht="24" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="G5" s="51" t="s">
+      <c r="G5" s="49" t="s">
         <v>133</v>
       </c>
-      <c r="H5" s="54" t="s">
+      <c r="H5" s="52" t="s">
         <v>132</v>
       </c>
       <c r="I5" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="P5" s="49"/>
-      <c r="Q5" s="55" t="s">
+      <c r="P5" s="48"/>
+      <c r="Q5" s="53" t="s">
         <v>134</v>
       </c>
-      <c r="R5" s="53" t="s">
+      <c r="R5" s="51" t="s">
         <v>136</v>
       </c>
       <c r="W5" s="20" t="s">
@@ -2975,12 +2971,12 @@
       <c r="E6" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="Q6" s="58" t="str">
+      <c r="Q6" s="56" t="str">
         <f>"Summary for: "&amp;H2&amp;"x"&amp;H3&amp;"x"&amp;H4&amp;" - "&amp;H5</f>
-        <v>Summary for: 315x315x340 - HD</v>
-      </c>
-      <c r="R6" s="59"/>
-      <c r="S6" s="60"/>
+        <v>Summary for: 415x415x340 - HD</v>
+      </c>
+      <c r="R6" s="57"/>
+      <c r="S6" s="58"/>
     </row>
     <row r="7" spans="2:23" s="12" customFormat="1" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B7" s="12" t="s">
@@ -3025,7 +3021,7 @@
         <v>14</v>
       </c>
       <c r="R7" s="30"/>
-      <c r="S7" s="37"/>
+      <c r="S7" s="36"/>
       <c r="T7"/>
       <c r="U7"/>
       <c r="V7"/>
@@ -3037,7 +3033,7 @@
       <c r="C8" t="s">
         <v>136</v>
       </c>
-      <c r="D8" s="52" t="str">
+      <c r="D8" s="50" t="str">
         <f t="shared" ref="D8:D55" si="0">IF($H$5="STD_HT",B8,IF($H$5="HD",C8,""))</f>
         <v>x</v>
       </c>
@@ -3055,7 +3051,7 @@
       </c>
       <c r="I8" s="14">
         <f t="shared" ref="I8:I52" si="1">IFERROR(VLOOKUP(K8,$G$2:$H$4,2,0),0)+M8</f>
-        <v>420</v>
+        <v>520</v>
       </c>
       <c r="J8" s="14">
         <v>1</v>
@@ -3072,7 +3068,7 @@
       <c r="Q8" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="R8" s="32" t="s">
+      <c r="R8" s="31" t="s">
         <v>10</v>
       </c>
       <c r="S8" s="21" t="s">
@@ -3086,7 +3082,7 @@
       <c r="C9" t="s">
         <v>136</v>
       </c>
-      <c r="D9" s="52" t="str">
+      <c r="D9" s="50" t="str">
         <f t="shared" si="0"/>
         <v>x</v>
       </c>
@@ -3104,7 +3100,7 @@
       </c>
       <c r="I9" s="14">
         <f t="shared" si="1"/>
-        <v>420</v>
+        <v>520</v>
       </c>
       <c r="J9" s="14">
         <v>1</v>
@@ -3118,7 +3114,7 @@
       <c r="M9" s="1">
         <v>105</v>
       </c>
-      <c r="Q9" s="33" t="s">
+      <c r="Q9" s="32" t="s">
         <v>22</v>
       </c>
       <c r="R9" s="15">
@@ -3135,7 +3131,7 @@
       <c r="C10" t="s">
         <v>136</v>
       </c>
-      <c r="D10" s="52" t="str">
+      <c r="D10" s="50" t="str">
         <f t="shared" si="0"/>
         <v>x</v>
       </c>
@@ -3153,7 +3149,7 @@
       </c>
       <c r="I10" s="14">
         <f t="shared" si="1"/>
-        <v>410</v>
+        <v>510</v>
       </c>
       <c r="J10" s="14">
         <v>1</v>
@@ -3167,7 +3163,7 @@
       <c r="M10" s="1">
         <v>95</v>
       </c>
-      <c r="Q10" s="34" t="s">
+      <c r="Q10" s="33" t="s">
         <v>22</v>
       </c>
       <c r="R10" s="15">
@@ -3184,7 +3180,7 @@
       <c r="C11" t="s">
         <v>136</v>
       </c>
-      <c r="D11" s="52" t="str">
+      <c r="D11" s="50" t="str">
         <f t="shared" si="0"/>
         <v>x</v>
       </c>
@@ -3202,7 +3198,7 @@
       </c>
       <c r="I11" s="14">
         <f t="shared" si="1"/>
-        <v>410</v>
+        <v>510</v>
       </c>
       <c r="J11" s="14">
         <v>1</v>
@@ -3227,7 +3223,7 @@
       <c r="C12" t="s">
         <v>136</v>
       </c>
-      <c r="D12" s="52" t="str">
+      <c r="D12" s="50" t="str">
         <f t="shared" si="0"/>
         <v>x</v>
       </c>
@@ -3245,7 +3241,7 @@
       </c>
       <c r="I12" s="14">
         <f t="shared" si="1"/>
-        <v>420</v>
+        <v>520</v>
       </c>
       <c r="J12" s="14">
         <v>1</v>
@@ -3259,10 +3255,10 @@
       <c r="M12" s="1">
         <v>105</v>
       </c>
-      <c r="Q12" s="33" t="s">
+      <c r="Q12" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="R12" s="36">
+      <c r="R12" s="35">
         <v>140</v>
       </c>
       <c r="S12" s="27">
@@ -3276,7 +3272,7 @@
       <c r="C13" t="s">
         <v>136</v>
       </c>
-      <c r="D13" s="52" t="str">
+      <c r="D13" s="50" t="str">
         <f t="shared" si="0"/>
         <v>x</v>
       </c>
@@ -3294,7 +3290,7 @@
       </c>
       <c r="I13" s="14">
         <f t="shared" si="1"/>
-        <v>420</v>
+        <v>520</v>
       </c>
       <c r="J13" s="14">
         <v>1</v>
@@ -3308,7 +3304,7 @@
       <c r="M13" s="1">
         <v>105</v>
       </c>
-      <c r="Q13" s="35" t="s">
+      <c r="Q13" s="34" t="s">
         <v>18</v>
       </c>
       <c r="R13" s="15">
@@ -3325,7 +3321,7 @@
       <c r="C14" t="s">
         <v>136</v>
       </c>
-      <c r="D14" s="52" t="str">
+      <c r="D14" s="50" t="str">
         <f t="shared" si="0"/>
         <v>x</v>
       </c>
@@ -3343,7 +3339,7 @@
       </c>
       <c r="I14" s="14">
         <f t="shared" si="1"/>
-        <v>410</v>
+        <v>510</v>
       </c>
       <c r="J14" s="14">
         <v>1</v>
@@ -3357,7 +3353,7 @@
       <c r="M14" s="1">
         <v>95</v>
       </c>
-      <c r="Q14" s="35" t="s">
+      <c r="Q14" s="34" t="s">
         <v>18</v>
       </c>
       <c r="R14" s="15">
@@ -3374,7 +3370,7 @@
       <c r="C15" t="s">
         <v>136</v>
       </c>
-      <c r="D15" s="52" t="str">
+      <c r="D15" s="50" t="str">
         <f t="shared" si="0"/>
         <v>x</v>
       </c>
@@ -3392,7 +3388,7 @@
       </c>
       <c r="I15" s="14">
         <f t="shared" si="1"/>
-        <v>410</v>
+        <v>510</v>
       </c>
       <c r="J15" s="14">
         <v>1</v>
@@ -3406,7 +3402,7 @@
       <c r="M15" s="1">
         <v>95</v>
       </c>
-      <c r="Q15" s="35" t="s">
+      <c r="Q15" s="34" t="s">
         <v>18</v>
       </c>
       <c r="R15" s="15">
@@ -3423,7 +3419,7 @@
       <c r="C16" t="s">
         <v>136</v>
       </c>
-      <c r="D16" s="52" t="str">
+      <c r="D16" s="50" t="str">
         <f t="shared" si="0"/>
         <v>x</v>
       </c>
@@ -3441,7 +3437,7 @@
       </c>
       <c r="I16" s="14">
         <f t="shared" si="1"/>
-        <v>420</v>
+        <v>520</v>
       </c>
       <c r="J16" s="14">
         <v>1</v>
@@ -3455,7 +3451,7 @@
       <c r="M16" s="1">
         <v>105</v>
       </c>
-      <c r="Q16" s="34" t="s">
+      <c r="Q16" s="33" t="s">
         <v>18</v>
       </c>
       <c r="R16" s="15">
@@ -3472,7 +3468,7 @@
       <c r="C17" t="s">
         <v>136</v>
       </c>
-      <c r="D17" s="52" t="str">
+      <c r="D17" s="50" t="str">
         <f t="shared" si="0"/>
         <v>x</v>
       </c>
@@ -3490,7 +3486,7 @@
       </c>
       <c r="I17" s="14">
         <f t="shared" si="1"/>
-        <v>410</v>
+        <v>510</v>
       </c>
       <c r="J17" s="14">
         <v>1</v>
@@ -3515,7 +3511,7 @@
       <c r="C18" t="s">
         <v>136</v>
       </c>
-      <c r="D18" s="52" t="str">
+      <c r="D18" s="50" t="str">
         <f t="shared" si="0"/>
         <v>x</v>
       </c>
@@ -3533,7 +3529,7 @@
       </c>
       <c r="I18" s="14">
         <f t="shared" si="1"/>
-        <v>410</v>
+        <v>510</v>
       </c>
       <c r="J18" s="14">
         <v>1</v>
@@ -3547,10 +3543,10 @@
       <c r="M18" s="1">
         <v>95</v>
       </c>
-      <c r="Q18" s="33" t="s">
+      <c r="Q18" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="R18" s="33">
+      <c r="R18" s="32">
         <v>150</v>
       </c>
       <c r="S18" s="27">
@@ -3564,7 +3560,7 @@
       <c r="C19" t="s">
         <v>136</v>
       </c>
-      <c r="D19" s="52" t="str">
+      <c r="D19" s="50" t="str">
         <f t="shared" si="0"/>
         <v>x</v>
       </c>
@@ -3596,10 +3592,10 @@
       <c r="M19" s="1">
         <v>540</v>
       </c>
-      <c r="Q19" s="35" t="s">
+      <c r="Q19" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="R19" s="34">
+      <c r="R19" s="33">
         <v>450</v>
       </c>
       <c r="S19" s="27">
@@ -3613,7 +3609,7 @@
       <c r="C20" t="s">
         <v>136</v>
       </c>
-      <c r="D20" s="52" t="str">
+      <c r="D20" s="50" t="str">
         <f t="shared" si="0"/>
         <v>x</v>
       </c>
@@ -3645,7 +3641,7 @@
       <c r="M20" s="1">
         <v>540</v>
       </c>
-      <c r="Q20" s="35" t="s">
+      <c r="Q20" s="34" t="s">
         <v>46</v>
       </c>
       <c r="R20" s="15">
@@ -3662,7 +3658,7 @@
       <c r="C21" t="s">
         <v>136</v>
       </c>
-      <c r="D21" s="52" t="str">
+      <c r="D21" s="50" t="str">
         <f t="shared" si="0"/>
         <v>x</v>
       </c>
@@ -3694,7 +3690,7 @@
       <c r="M21" s="1">
         <v>540</v>
       </c>
-      <c r="Q21" s="34" t="s">
+      <c r="Q21" s="33" t="s">
         <v>46</v>
       </c>
       <c r="R21" s="15">
@@ -3711,7 +3707,7 @@
       <c r="C22" t="s">
         <v>136</v>
       </c>
-      <c r="D22" s="52" t="str">
+      <c r="D22" s="50" t="str">
         <f t="shared" si="0"/>
         <v>x</v>
       </c>
@@ -3754,7 +3750,7 @@
       <c r="C23" t="s">
         <v>136</v>
       </c>
-      <c r="D23" s="52" t="str">
+      <c r="D23" s="50" t="str">
         <f t="shared" si="0"/>
         <v>x</v>
       </c>
@@ -3772,7 +3768,7 @@
       </c>
       <c r="I23" s="14">
         <f t="shared" si="1"/>
-        <v>410</v>
+        <v>510</v>
       </c>
       <c r="J23" s="14">
         <v>1</v>
@@ -3786,7 +3782,7 @@
       <c r="M23" s="1">
         <v>95</v>
       </c>
-      <c r="Q23" s="36" t="s">
+      <c r="Q23" s="35" t="s">
         <v>61</v>
       </c>
       <c r="R23" s="15">
@@ -3803,7 +3799,7 @@
       <c r="C24" t="s">
         <v>136</v>
       </c>
-      <c r="D24" s="52" t="str">
+      <c r="D24" s="50" t="str">
         <f t="shared" si="0"/>
         <v>x</v>
       </c>
@@ -3846,7 +3842,7 @@
       <c r="C25" t="s">
         <v>136</v>
       </c>
-      <c r="D25" s="52" t="str">
+      <c r="D25" s="50" t="str">
         <f t="shared" si="0"/>
         <v>x</v>
       </c>
@@ -3878,7 +3874,7 @@
       <c r="M25" s="1">
         <v>140</v>
       </c>
-      <c r="Q25" s="36" t="s">
+      <c r="Q25" s="35" t="s">
         <v>113</v>
       </c>
       <c r="R25" s="15">
@@ -3895,7 +3891,7 @@
       <c r="C26" t="s">
         <v>136</v>
       </c>
-      <c r="D26" s="52" t="str">
+      <c r="D26" s="50" t="str">
         <f t="shared" si="0"/>
         <v>x</v>
       </c>
@@ -3938,7 +3934,7 @@
       <c r="C27" t="s">
         <v>136</v>
       </c>
-      <c r="D27" s="52" t="str">
+      <c r="D27" s="50" t="str">
         <f t="shared" si="0"/>
         <v>x</v>
       </c>
@@ -3970,7 +3966,7 @@
       <c r="M27" s="1">
         <v>140</v>
       </c>
-      <c r="Q27" s="36" t="s">
+      <c r="Q27" s="35" t="s">
         <v>121</v>
       </c>
       <c r="R27" s="15">
@@ -3987,7 +3983,7 @@
       <c r="C28" t="s">
         <v>136</v>
       </c>
-      <c r="D28" s="52" t="str">
+      <c r="D28" s="50" t="str">
         <f t="shared" si="0"/>
         <v>x</v>
       </c>
@@ -4005,7 +4001,7 @@
       </c>
       <c r="I28" s="14">
         <f t="shared" si="1"/>
-        <v>410</v>
+        <v>510</v>
       </c>
       <c r="J28" s="14">
         <v>1</v>
@@ -4030,7 +4026,7 @@
       <c r="C29" t="s">
         <v>136</v>
       </c>
-      <c r="D29" s="52" t="str">
+      <c r="D29" s="50" t="str">
         <f t="shared" si="0"/>
         <v>x</v>
       </c>
@@ -4063,7 +4059,7 @@
         <v>540</v>
       </c>
       <c r="N29" s="1"/>
-      <c r="Q29" s="36" t="s">
+      <c r="Q29" s="35" t="s">
         <v>120</v>
       </c>
       <c r="R29" s="15">
@@ -4080,7 +4076,7 @@
       <c r="C30" t="s">
         <v>136</v>
       </c>
-      <c r="D30" s="52" t="str">
+      <c r="D30" s="50" t="str">
         <f t="shared" si="0"/>
         <v>x</v>
       </c>
@@ -4123,7 +4119,7 @@
       <c r="C31" t="s">
         <v>136</v>
       </c>
-      <c r="D31" s="52" t="str">
+      <c r="D31" s="50" t="str">
         <f t="shared" si="0"/>
         <v>x</v>
       </c>
@@ -4155,7 +4151,7 @@
       <c r="M31" s="1">
         <v>170</v>
       </c>
-      <c r="Q31" s="36" t="s">
+      <c r="Q31" s="35" t="s">
         <v>127</v>
       </c>
       <c r="R31" s="15">
@@ -4172,7 +4168,7 @@
       <c r="C32" t="s">
         <v>136</v>
       </c>
-      <c r="D32" s="52" t="str">
+      <c r="D32" s="50" t="str">
         <f t="shared" si="0"/>
         <v>x</v>
       </c>
@@ -4215,7 +4211,7 @@
       <c r="C33" t="s">
         <v>136</v>
       </c>
-      <c r="D33" s="52" t="str">
+      <c r="D33" s="50" t="str">
         <f t="shared" si="0"/>
         <v>x</v>
       </c>
@@ -4258,7 +4254,7 @@
       <c r="C34" t="s">
         <v>136</v>
       </c>
-      <c r="D34" s="52" t="str">
+      <c r="D34" s="50" t="str">
         <f t="shared" si="0"/>
         <v>x</v>
       </c>
@@ -4276,7 +4272,7 @@
       </c>
       <c r="I34" s="14">
         <f t="shared" si="1"/>
-        <v>260</v>
+        <v>360</v>
       </c>
       <c r="J34" s="14">
         <v>1</v>
@@ -4301,7 +4297,7 @@
       <c r="C35" t="s">
         <v>136</v>
       </c>
-      <c r="D35" s="52" t="str">
+      <c r="D35" s="50" t="str">
         <f t="shared" si="0"/>
         <v>x</v>
       </c>
@@ -4319,7 +4315,7 @@
       </c>
       <c r="I35" s="14">
         <f t="shared" si="1"/>
-        <v>260</v>
+        <v>360</v>
       </c>
       <c r="J35" s="14">
         <v>1</v>
@@ -4344,7 +4340,7 @@
       <c r="C36" t="s">
         <v>136</v>
       </c>
-      <c r="D36" s="52" t="str">
+      <c r="D36" s="50" t="str">
         <f t="shared" si="0"/>
         <v>x</v>
       </c>
@@ -4362,7 +4358,7 @@
       </c>
       <c r="I36" s="14">
         <f t="shared" si="1"/>
-        <v>320</v>
+        <v>420</v>
       </c>
       <c r="J36" s="14">
         <v>1</v>
@@ -4387,7 +4383,7 @@
       <c r="C37" t="s">
         <v>136</v>
       </c>
-      <c r="D37" s="52" t="str">
+      <c r="D37" s="50" t="str">
         <f t="shared" si="0"/>
         <v>x</v>
       </c>
@@ -4405,7 +4401,7 @@
       </c>
       <c r="I37" s="14">
         <f t="shared" si="1"/>
-        <v>320</v>
+        <v>420</v>
       </c>
       <c r="J37" s="14">
         <v>1</v>
@@ -4427,7 +4423,7 @@
       <c r="B38" t="s">
         <v>136</v>
       </c>
-      <c r="D38" s="52">
+      <c r="D38" s="50">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4445,7 +4441,7 @@
       </c>
       <c r="I38" s="14">
         <f t="shared" si="1"/>
-        <v>431</v>
+        <v>531</v>
       </c>
       <c r="J38" s="14">
         <v>1</v>
@@ -4475,7 +4471,7 @@
       <c r="C39" t="s">
         <v>136</v>
       </c>
-      <c r="D39" s="52" t="str">
+      <c r="D39" s="50" t="str">
         <f t="shared" si="0"/>
         <v>x</v>
       </c>
@@ -4493,7 +4489,7 @@
       </c>
       <c r="I39" s="14">
         <f t="shared" si="1"/>
-        <v>340</v>
+        <v>440</v>
       </c>
       <c r="J39" s="14">
         <v>1</v>
@@ -4507,10 +4503,10 @@
       <c r="M39" s="1">
         <v>25</v>
       </c>
-      <c r="O39" s="61" t="s">
+      <c r="O39" s="59" t="s">
         <v>104</v>
       </c>
-      <c r="P39" s="62"/>
+      <c r="P39" s="60"/>
       <c r="Q39" s="19" t="s">
         <v>5</v>
       </c>
@@ -4519,7 +4515,7 @@
       <c r="B40" t="s">
         <v>136</v>
       </c>
-      <c r="D40" s="52">
+      <c r="D40" s="50">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4537,7 +4533,7 @@
       </c>
       <c r="I40" s="14">
         <f t="shared" si="1"/>
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="J40" s="14">
         <v>1</v>
@@ -4551,10 +4547,10 @@
       <c r="M40" s="1">
         <v>85</v>
       </c>
-      <c r="O40" s="56">
+      <c r="O40" s="54">
         <v>315</v>
       </c>
-      <c r="P40" s="57"/>
+      <c r="P40" s="55"/>
       <c r="Q40" s="16">
         <v>340</v>
       </c>
@@ -4563,7 +4559,7 @@
       <c r="B41" t="s">
         <v>136</v>
       </c>
-      <c r="D41" s="52">
+      <c r="D41" s="50">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4581,7 +4577,7 @@
       </c>
       <c r="I41" s="14">
         <f t="shared" si="1"/>
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="J41" s="14">
         <v>1</v>
@@ -4595,11 +4591,11 @@
       <c r="M41" s="1">
         <v>85</v>
       </c>
-      <c r="O41" s="56">
+      <c r="O41" s="54">
         <f>O40+50</f>
         <v>365</v>
       </c>
-      <c r="P41" s="57"/>
+      <c r="P41" s="55"/>
       <c r="Q41" s="16">
         <f>Q40+50</f>
         <v>390</v>
@@ -4609,7 +4605,7 @@
       <c r="B42" t="s">
         <v>136</v>
       </c>
-      <c r="D42" s="52">
+      <c r="D42" s="50">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4627,7 +4623,7 @@
       </c>
       <c r="I42" s="14">
         <f t="shared" si="1"/>
-        <v>385</v>
+        <v>485</v>
       </c>
       <c r="J42" s="14">
         <v>1</v>
@@ -4641,11 +4637,11 @@
       <c r="M42" s="1">
         <v>70</v>
       </c>
-      <c r="O42" s="56">
+      <c r="O42" s="54">
         <f t="shared" ref="O42:O47" si="2">O41+50</f>
         <v>415</v>
       </c>
-      <c r="P42" s="57"/>
+      <c r="P42" s="55"/>
       <c r="Q42" s="16">
         <f t="shared" ref="Q42:Q47" si="3">Q41+50</f>
         <v>440</v>
@@ -4658,7 +4654,7 @@
       <c r="C43" t="s">
         <v>136</v>
       </c>
-      <c r="D43" s="52" t="str">
+      <c r="D43" s="50" t="str">
         <f t="shared" si="0"/>
         <v>x</v>
       </c>
@@ -4690,11 +4686,11 @@
       <c r="M43" s="1">
         <v>110</v>
       </c>
-      <c r="O43" s="56">
+      <c r="O43" s="54">
         <f t="shared" si="2"/>
         <v>465</v>
       </c>
-      <c r="P43" s="57"/>
+      <c r="P43" s="55"/>
       <c r="Q43" s="16">
         <f t="shared" si="3"/>
         <v>490</v>
@@ -4707,7 +4703,7 @@
       <c r="C44" t="s">
         <v>136</v>
       </c>
-      <c r="D44" s="52" t="str">
+      <c r="D44" s="50" t="str">
         <f t="shared" si="0"/>
         <v>x</v>
       </c>
@@ -4739,11 +4735,11 @@
       <c r="M44" s="1">
         <v>110</v>
       </c>
-      <c r="O44" s="56">
+      <c r="O44" s="54">
         <f t="shared" si="2"/>
         <v>515</v>
       </c>
-      <c r="P44" s="57"/>
+      <c r="P44" s="55"/>
       <c r="Q44" s="16">
         <f t="shared" si="3"/>
         <v>540</v>
@@ -4756,7 +4752,7 @@
       <c r="C45" t="s">
         <v>136</v>
       </c>
-      <c r="D45" s="52" t="str">
+      <c r="D45" s="50" t="str">
         <f t="shared" si="0"/>
         <v>x</v>
       </c>
@@ -4788,11 +4784,11 @@
       <c r="M45" s="1">
         <v>110</v>
       </c>
-      <c r="O45" s="56">
+      <c r="O45" s="54">
         <f t="shared" si="2"/>
         <v>565</v>
       </c>
-      <c r="P45" s="57"/>
+      <c r="P45" s="55"/>
       <c r="Q45" s="16">
         <f t="shared" si="3"/>
         <v>590</v>
@@ -4805,7 +4801,7 @@
       <c r="C46" t="s">
         <v>136</v>
       </c>
-      <c r="D46" s="52" t="str">
+      <c r="D46" s="50" t="str">
         <f t="shared" si="0"/>
         <v>x</v>
       </c>
@@ -4837,11 +4833,11 @@
       <c r="M46" s="1">
         <v>150</v>
       </c>
-      <c r="O46" s="56">
+      <c r="O46" s="54">
         <f t="shared" si="2"/>
         <v>615</v>
       </c>
-      <c r="P46" s="57"/>
+      <c r="P46" s="55"/>
       <c r="Q46" s="16">
         <f t="shared" si="3"/>
         <v>640</v>
@@ -4854,7 +4850,7 @@
       <c r="C47" t="s">
         <v>136</v>
       </c>
-      <c r="D47" s="52" t="str">
+      <c r="D47" s="50" t="str">
         <f t="shared" si="0"/>
         <v>x</v>
       </c>
@@ -4886,11 +4882,11 @@
       <c r="M47" s="1">
         <v>110</v>
       </c>
-      <c r="O47" s="56">
+      <c r="O47" s="54">
         <f t="shared" si="2"/>
         <v>665</v>
       </c>
-      <c r="P47" s="57"/>
+      <c r="P47" s="55"/>
       <c r="Q47" s="16">
         <f t="shared" si="3"/>
         <v>690</v>
@@ -4903,7 +4899,7 @@
       <c r="C48" t="s">
         <v>136</v>
       </c>
-      <c r="D48" s="52" t="str">
+      <c r="D48" s="50" t="str">
         <f t="shared" si="0"/>
         <v>x</v>
       </c>
@@ -4943,7 +4939,7 @@
       <c r="C49" t="s">
         <v>136</v>
       </c>
-      <c r="D49" s="52" t="str">
+      <c r="D49" s="50" t="str">
         <f t="shared" si="0"/>
         <v>x</v>
       </c>
@@ -4983,7 +4979,7 @@
       <c r="C50" t="s">
         <v>136</v>
       </c>
-      <c r="D50" s="52" t="str">
+      <c r="D50" s="50" t="str">
         <f t="shared" si="0"/>
         <v>x</v>
       </c>
@@ -5001,7 +4997,7 @@
       </c>
       <c r="I50" s="14">
         <f>IFERROR(VLOOKUP(K50,$G$2:$H$4,2,0)*8,0)+M50</f>
-        <v>4000</v>
+        <v>4800</v>
       </c>
       <c r="J50" s="14">
         <v>1</v>
@@ -5023,7 +5019,7 @@
       <c r="C51" t="s">
         <v>136</v>
       </c>
-      <c r="D51" s="52" t="str">
+      <c r="D51" s="50" t="str">
         <f t="shared" si="0"/>
         <v>x</v>
       </c>
@@ -5041,7 +5037,7 @@
       </c>
       <c r="I51" s="14">
         <f t="shared" si="1"/>
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="J51" s="14">
         <v>1</v>
@@ -5057,11 +5053,11 @@
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A52" s="49"/>
+      <c r="A52" s="48"/>
       <c r="C52" t="s">
         <v>136</v>
       </c>
-      <c r="D52" s="52" t="str">
+      <c r="D52" s="50" t="str">
         <f t="shared" si="0"/>
         <v>x</v>
       </c>
@@ -5079,7 +5075,7 @@
       </c>
       <c r="I52" s="14">
         <f t="shared" si="1"/>
-        <v>420</v>
+        <v>520</v>
       </c>
       <c r="J52" s="14">
         <v>1</v>
@@ -5090,16 +5086,16 @@
       <c r="L52" s="1">
         <v>315</v>
       </c>
-      <c r="M52" s="50">
+      <c r="M52" s="1">
         <v>105</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A53" s="49"/>
+      <c r="A53" s="48"/>
       <c r="C53" t="s">
         <v>136</v>
       </c>
-      <c r="D53" s="52" t="str">
+      <c r="D53" s="50" t="str">
         <f t="shared" si="0"/>
         <v>x</v>
       </c>
@@ -5117,7 +5113,7 @@
       </c>
       <c r="I53" s="14">
         <f t="shared" ref="I53:I55" si="4">IFERROR(VLOOKUP(K53,$G$2:$H$4,2,0),0)+M53</f>
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="J53" s="14">
         <v>1</v>
@@ -5134,11 +5130,11 @@
       <c r="Q53"/>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A54" s="49"/>
+      <c r="A54" s="48"/>
       <c r="C54" t="s">
         <v>136</v>
       </c>
-      <c r="D54" s="52" t="str">
+      <c r="D54" s="50" t="str">
         <f t="shared" si="0"/>
         <v>x</v>
       </c>
@@ -5156,7 +5152,7 @@
       </c>
       <c r="I54" s="14">
         <f t="shared" si="4"/>
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="J54" s="14">
         <v>1</v>
@@ -5173,11 +5169,11 @@
       <c r="Q54"/>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A55" s="49"/>
+      <c r="A55" s="48"/>
       <c r="C55" t="s">
         <v>136</v>
       </c>
-      <c r="D55" s="52" t="str">
+      <c r="D55" s="50" t="str">
         <f t="shared" si="0"/>
         <v>x</v>
       </c>
@@ -5195,7 +5191,7 @@
       </c>
       <c r="I55" s="14">
         <f t="shared" si="4"/>
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="J55" s="14">
         <v>1</v>
@@ -5226,7 +5222,7 @@
     <mergeCell ref="O46:P46"/>
   </mergeCells>
   <conditionalFormatting sqref="D8:J55">
-    <cfRule type="expression" dxfId="30" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>$D8&lt;&gt;"X"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5260,114 +5256,114 @@
   <sheetData>
     <row r="2" spans="16:17" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="3" spans="16:17" x14ac:dyDescent="0.35">
-      <c r="P3" s="41" t="s">
+      <c r="P3" s="40" t="s">
         <v>123</v>
       </c>
-      <c r="Q3" s="42"/>
+      <c r="Q3" s="41"/>
     </row>
     <row r="4" spans="16:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="P4" s="43" t="str">
+      <c r="P4" s="42" t="str">
         <f>FRAMECALCULATOR!G1</f>
         <v>Desired Print Area</v>
       </c>
-      <c r="Q4" s="44" t="s">
+      <c r="Q4" s="43" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="5" spans="16:17" ht="21" x14ac:dyDescent="0.5">
-      <c r="P5" s="45" t="str">
+      <c r="P5" s="44" t="str">
         <f>FRAMECALCULATOR!G2</f>
         <v>X</v>
       </c>
-      <c r="Q5" s="46">
+      <c r="Q5" s="45">
         <f>FRAMECALCULATOR!H2</f>
-        <v>315</v>
+        <v>415</v>
       </c>
     </row>
     <row r="6" spans="16:17" ht="21.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="P6" s="47" t="str">
+      <c r="P6" s="46" t="str">
         <f>FRAMECALCULATOR!G3</f>
         <v>Y</v>
       </c>
-      <c r="Q6" s="48">
+      <c r="Q6" s="47">
         <f>FRAMECALCULATOR!H3</f>
-        <v>315</v>
+        <v>415</v>
       </c>
     </row>
     <row r="9" spans="16:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="P9" s="39" t="s">
+      <c r="P9" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="Q9" s="39" t="s">
+      <c r="Q9" s="38" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="10" spans="16:17" ht="21" x14ac:dyDescent="0.5">
-      <c r="P10" s="38" t="s">
+      <c r="P10" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="Q10" s="40">
+      <c r="Q10" s="39">
         <f>Q5+25</f>
-        <v>340</v>
+        <v>440</v>
       </c>
     </row>
     <row r="11" spans="16:17" ht="21" x14ac:dyDescent="0.5">
-      <c r="P11" s="38" t="s">
+      <c r="P11" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="Q11" s="40">
+      <c r="Q11" s="39">
         <f>Q6+25</f>
-        <v>340</v>
+        <v>440</v>
       </c>
     </row>
     <row r="13" spans="16:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="P13" s="39" t="s">
+      <c r="P13" s="38" t="s">
         <v>115</v>
       </c>
-      <c r="Q13" s="39" t="s">
+      <c r="Q13" s="38" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="14" spans="16:17" ht="21" x14ac:dyDescent="0.5">
-      <c r="P14" s="38" t="s">
+      <c r="P14" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="Q14" s="40">
+      <c r="Q14" s="39">
         <f>Q5+12</f>
-        <v>327</v>
+        <v>427</v>
       </c>
     </row>
     <row r="15" spans="16:17" ht="21" x14ac:dyDescent="0.5">
-      <c r="P15" s="38" t="s">
+      <c r="P15" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="Q15" s="40">
+      <c r="Q15" s="39">
         <f>Q6+-13</f>
-        <v>302</v>
+        <v>402</v>
       </c>
     </row>
     <row r="17" spans="16:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="P17" s="39" t="s">
+      <c r="P17" s="38" t="s">
         <v>122</v>
       </c>
-      <c r="Q17" s="39"/>
+      <c r="Q17" s="38"/>
     </row>
     <row r="18" spans="16:17" ht="21" x14ac:dyDescent="0.5">
-      <c r="P18" s="38" t="s">
+      <c r="P18" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="Q18" s="40">
+      <c r="Q18" s="39">
         <f>Q5-15</f>
-        <v>300</v>
+        <v>400</v>
       </c>
     </row>
     <row r="19" spans="16:17" ht="21" x14ac:dyDescent="0.5">
-      <c r="P19" s="38" t="s">
+      <c r="P19" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="Q19" s="40">
+      <c r="Q19" s="39">
         <f>Q6-15</f>
-        <v>300</v>
+        <v>400</v>
       </c>
     </row>
   </sheetData>

--- a/docs/assets/references/frame/FrameCalculator.xlsx
+++ b/docs/assets/references/frame/FrameCalculator.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e8bf86f88c49aa82/Documents/GitHub/HevORT/docs/assets/references/frame/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{0DFE4DA3-9321-4DE1-8882-F27B64FDD3BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DBB8B9C3-1348-48CD-A1F8-CF11481C8CE2}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{0DFE4DA3-9321-4DE1-8882-F27B64FDD3BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{83F77046-2B5F-4036-9613-9DF249554A84}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{2DD4E541-7648-4A97-AB5A-A9C0E0660C31}"/>
   </bookViews>
@@ -2869,7 +2869,7 @@
   </sheetPr>
   <dimension ref="A1:W55"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
@@ -2912,7 +2912,7 @@
         <v>2</v>
       </c>
       <c r="H2" s="5">
-        <v>415</v>
+        <v>315</v>
       </c>
       <c r="I2" s="17" t="s">
         <v>105</v>
@@ -2925,7 +2925,7 @@
       </c>
       <c r="H3" s="6">
         <f>H2</f>
-        <v>415</v>
+        <v>315</v>
       </c>
       <c r="I3" t="s">
         <v>4</v>
@@ -2973,7 +2973,7 @@
       </c>
       <c r="Q6" s="56" t="str">
         <f>"Summary for: "&amp;H2&amp;"x"&amp;H3&amp;"x"&amp;H4&amp;" - "&amp;H5</f>
-        <v>Summary for: 415x415x340 - HD</v>
+        <v>Summary for: 315x315x340 - HD</v>
       </c>
       <c r="R6" s="57"/>
       <c r="S6" s="58"/>
@@ -3051,7 +3051,7 @@
       </c>
       <c r="I8" s="14">
         <f t="shared" ref="I8:I52" si="1">IFERROR(VLOOKUP(K8,$G$2:$H$4,2,0),0)+M8</f>
-        <v>520</v>
+        <v>420</v>
       </c>
       <c r="J8" s="14">
         <v>1</v>
@@ -3100,7 +3100,7 @@
       </c>
       <c r="I9" s="14">
         <f t="shared" si="1"/>
-        <v>520</v>
+        <v>420</v>
       </c>
       <c r="J9" s="14">
         <v>1</v>
@@ -3149,7 +3149,7 @@
       </c>
       <c r="I10" s="14">
         <f t="shared" si="1"/>
-        <v>510</v>
+        <v>410</v>
       </c>
       <c r="J10" s="14">
         <v>1</v>
@@ -3198,7 +3198,7 @@
       </c>
       <c r="I11" s="14">
         <f t="shared" si="1"/>
-        <v>510</v>
+        <v>410</v>
       </c>
       <c r="J11" s="14">
         <v>1</v>
@@ -3241,7 +3241,7 @@
       </c>
       <c r="I12" s="14">
         <f t="shared" si="1"/>
-        <v>520</v>
+        <v>420</v>
       </c>
       <c r="J12" s="14">
         <v>1</v>
@@ -3290,7 +3290,7 @@
       </c>
       <c r="I13" s="14">
         <f t="shared" si="1"/>
-        <v>520</v>
+        <v>420</v>
       </c>
       <c r="J13" s="14">
         <v>1</v>
@@ -3339,7 +3339,7 @@
       </c>
       <c r="I14" s="14">
         <f t="shared" si="1"/>
-        <v>510</v>
+        <v>410</v>
       </c>
       <c r="J14" s="14">
         <v>1</v>
@@ -3388,7 +3388,7 @@
       </c>
       <c r="I15" s="14">
         <f t="shared" si="1"/>
-        <v>510</v>
+        <v>410</v>
       </c>
       <c r="J15" s="14">
         <v>1</v>
@@ -3437,7 +3437,7 @@
       </c>
       <c r="I16" s="14">
         <f t="shared" si="1"/>
-        <v>520</v>
+        <v>420</v>
       </c>
       <c r="J16" s="14">
         <v>1</v>
@@ -3486,7 +3486,7 @@
       </c>
       <c r="I17" s="14">
         <f t="shared" si="1"/>
-        <v>510</v>
+        <v>410</v>
       </c>
       <c r="J17" s="14">
         <v>1</v>
@@ -3529,7 +3529,7 @@
       </c>
       <c r="I18" s="14">
         <f t="shared" si="1"/>
-        <v>510</v>
+        <v>410</v>
       </c>
       <c r="J18" s="14">
         <v>1</v>
@@ -3768,7 +3768,7 @@
       </c>
       <c r="I23" s="14">
         <f t="shared" si="1"/>
-        <v>510</v>
+        <v>410</v>
       </c>
       <c r="J23" s="14">
         <v>1</v>
@@ -4001,7 +4001,7 @@
       </c>
       <c r="I28" s="14">
         <f t="shared" si="1"/>
-        <v>510</v>
+        <v>410</v>
       </c>
       <c r="J28" s="14">
         <v>1</v>
@@ -4272,7 +4272,7 @@
       </c>
       <c r="I34" s="14">
         <f t="shared" si="1"/>
-        <v>360</v>
+        <v>260</v>
       </c>
       <c r="J34" s="14">
         <v>1</v>
@@ -4315,7 +4315,7 @@
       </c>
       <c r="I35" s="14">
         <f t="shared" si="1"/>
-        <v>360</v>
+        <v>260</v>
       </c>
       <c r="J35" s="14">
         <v>1</v>
@@ -4358,7 +4358,7 @@
       </c>
       <c r="I36" s="14">
         <f t="shared" si="1"/>
-        <v>420</v>
+        <v>320</v>
       </c>
       <c r="J36" s="14">
         <v>1</v>
@@ -4401,7 +4401,7 @@
       </c>
       <c r="I37" s="14">
         <f t="shared" si="1"/>
-        <v>420</v>
+        <v>320</v>
       </c>
       <c r="J37" s="14">
         <v>1</v>
@@ -4441,7 +4441,7 @@
       </c>
       <c r="I38" s="14">
         <f t="shared" si="1"/>
-        <v>531</v>
+        <v>431</v>
       </c>
       <c r="J38" s="14">
         <v>1</v>
@@ -4489,7 +4489,7 @@
       </c>
       <c r="I39" s="14">
         <f t="shared" si="1"/>
-        <v>440</v>
+        <v>340</v>
       </c>
       <c r="J39" s="14">
         <v>1</v>
@@ -4533,7 +4533,7 @@
       </c>
       <c r="I40" s="14">
         <f t="shared" si="1"/>
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J40" s="14">
         <v>1</v>
@@ -4577,7 +4577,7 @@
       </c>
       <c r="I41" s="14">
         <f t="shared" si="1"/>
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J41" s="14">
         <v>1</v>
@@ -4623,7 +4623,7 @@
       </c>
       <c r="I42" s="14">
         <f t="shared" si="1"/>
-        <v>485</v>
+        <v>385</v>
       </c>
       <c r="J42" s="14">
         <v>1</v>
@@ -4997,7 +4997,7 @@
       </c>
       <c r="I50" s="14">
         <f>IFERROR(VLOOKUP(K50,$G$2:$H$4,2,0)*8,0)+M50</f>
-        <v>4800</v>
+        <v>4000</v>
       </c>
       <c r="J50" s="14">
         <v>1</v>
@@ -5037,7 +5037,7 @@
       </c>
       <c r="I51" s="14">
         <f t="shared" si="1"/>
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="J51" s="14">
         <v>1</v>
@@ -5075,7 +5075,7 @@
       </c>
       <c r="I52" s="14">
         <f t="shared" si="1"/>
-        <v>520</v>
+        <v>420</v>
       </c>
       <c r="J52" s="14">
         <v>1</v>
@@ -5113,7 +5113,7 @@
       </c>
       <c r="I53" s="14">
         <f t="shared" ref="I53:I55" si="4">IFERROR(VLOOKUP(K53,$G$2:$H$4,2,0),0)+M53</f>
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J53" s="14">
         <v>1</v>
@@ -5152,7 +5152,7 @@
       </c>
       <c r="I54" s="14">
         <f t="shared" si="4"/>
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J54" s="14">
         <v>1</v>
@@ -5191,7 +5191,7 @@
       </c>
       <c r="I55" s="14">
         <f t="shared" si="4"/>
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="J55" s="14">
         <v>1</v>
@@ -5226,7 +5226,7 @@
       <formula>$D8&lt;&gt;"X"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5" xr:uid="{43ABBEE6-5061-4C4F-BA60-D00D88D865EC}">
       <formula1>"STD_HT, HD"</formula1>
     </dataValidation>
@@ -5277,7 +5277,7 @@
       </c>
       <c r="Q5" s="45">
         <f>FRAMECALCULATOR!H2</f>
-        <v>415</v>
+        <v>315</v>
       </c>
     </row>
     <row r="6" spans="16:17" ht="21.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
@@ -5287,7 +5287,7 @@
       </c>
       <c r="Q6" s="47">
         <f>FRAMECALCULATOR!H3</f>
-        <v>415</v>
+        <v>315</v>
       </c>
     </row>
     <row r="9" spans="16:17" ht="15.5" x14ac:dyDescent="0.35">
@@ -5304,7 +5304,7 @@
       </c>
       <c r="Q10" s="39">
         <f>Q5+25</f>
-        <v>440</v>
+        <v>340</v>
       </c>
     </row>
     <row r="11" spans="16:17" ht="21" x14ac:dyDescent="0.5">
@@ -5313,7 +5313,7 @@
       </c>
       <c r="Q11" s="39">
         <f>Q6+25</f>
-        <v>440</v>
+        <v>340</v>
       </c>
     </row>
     <row r="13" spans="16:17" ht="15.5" x14ac:dyDescent="0.35">
@@ -5330,7 +5330,7 @@
       </c>
       <c r="Q14" s="39">
         <f>Q5+12</f>
-        <v>427</v>
+        <v>327</v>
       </c>
     </row>
     <row r="15" spans="16:17" ht="21" x14ac:dyDescent="0.5">
@@ -5339,7 +5339,7 @@
       </c>
       <c r="Q15" s="39">
         <f>Q6+-13</f>
-        <v>402</v>
+        <v>302</v>
       </c>
     </row>
     <row r="17" spans="16:17" ht="15.5" x14ac:dyDescent="0.35">
@@ -5354,7 +5354,7 @@
       </c>
       <c r="Q18" s="39">
         <f>Q5-15</f>
-        <v>400</v>
+        <v>300</v>
       </c>
     </row>
     <row r="19" spans="16:17" ht="21" x14ac:dyDescent="0.5">
@@ -5363,7 +5363,7 @@
       </c>
       <c r="Q19" s="39">
         <f>Q6-15</f>
-        <v>400</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>
